--- a/Plancheck/plancheck_data/check_protocol/ORL2.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/ORL2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1597,8 +1597,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2899,7 +2899,7 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
